--- a/Excel/HeroConfig@cs.xlsx
+++ b/Excel/HeroConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="12684"/>
+    <workbookView windowWidth="18288" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -47,6 +47,12 @@
     <t>战斗配置Id</t>
   </si>
   <si>
+    <t>合成的碎片道具Id</t>
+  </si>
+  <si>
+    <t>碎片数量</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -60,6 +66,12 @@
   </si>
   <si>
     <t>ChampionId</t>
+  </si>
+  <si>
+    <t>ItemId</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
   </si>
   <si>
     <t>int</t>
@@ -179,7 +191,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +211,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -682,133 +687,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -829,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1185,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="C3:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1224,8 +1229,12 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="3:11">
@@ -1233,45 +1242,53 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" ht="14.4" spans="3:11">
@@ -1279,16 +1296,16 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1301,16 +1318,16 @@
         <v>1001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1323,16 +1340,16 @@
         <v>1002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1344,16 +1361,16 @@
         <v>1003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -1365,16 +1382,16 @@
         <v>1004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1386,16 +1403,16 @@
         <v>1005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -1407,16 +1424,16 @@
         <v>1006</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1428,16 +1445,16 @@
         <v>1007</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1449,16 +1466,16 @@
         <v>1008</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>

--- a/Excel/HeroConfig@cs.xlsx
+++ b/Excel/HeroConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="7740"/>
+    <workbookView windowWidth="23100" windowHeight="7727"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1190,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="C3:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1310,7 +1310,12 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="I6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J6" s="9">
+        <v>6</v>
+      </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" ht="14.4" spans="3:11">
@@ -1332,7 +1337,12 @@
       <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="I7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
       <c r="K7" s="9"/>
     </row>
     <row r="8" ht="14.4" spans="3:11">
@@ -1354,6 +1364,12 @@
       <c r="H8" s="7">
         <v>3</v>
       </c>
+      <c r="I8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" ht="14.4" spans="3:11">
@@ -1375,6 +1391,12 @@
       <c r="H9" s="7">
         <v>4</v>
       </c>
+      <c r="I9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" ht="14.4" spans="3:11">
@@ -1396,6 +1418,12 @@
       <c r="H10" s="7">
         <v>5</v>
       </c>
+      <c r="I10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
       <c r="K10" s="9"/>
     </row>
     <row r="11" ht="14.4" spans="3:11">
@@ -1417,6 +1445,12 @@
       <c r="H11" s="7">
         <v>6</v>
       </c>
+      <c r="I11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6</v>
+      </c>
       <c r="K11" s="9"/>
     </row>
     <row r="12" ht="14.4" spans="3:11">
@@ -1438,6 +1472,12 @@
       <c r="H12" s="7">
         <v>7</v>
       </c>
+      <c r="I12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" ht="14.4" spans="3:11">
@@ -1459,9 +1499,15 @@
       <c r="H13" s="7">
         <v>8</v>
       </c>
+      <c r="I13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" ht="14.4" spans="3:8">
+    <row r="14" ht="14.4" spans="3:10">
       <c r="C14" s="1">
         <v>1008</v>
       </c>
@@ -1479,6 +1525,12 @@
       </c>
       <c r="H14" s="7">
         <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HeroConfig@cs.xlsx
+++ b/Excel/HeroConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23100" windowHeight="7727"/>
+    <workbookView windowWidth="26880" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -47,10 +47,7 @@
     <t>战斗配置Id</t>
   </si>
   <si>
-    <t>合成的碎片道具Id</t>
-  </si>
-  <si>
-    <t>碎片数量</t>
+    <t>购买需要的积分</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,9 +65,6 @@
     <t>ChampionId</t>
   </si>
   <si>
-    <t>ItemId</t>
-  </si>
-  <si>
     <t>ItemCount</t>
   </si>
   <si>
@@ -80,19 +74,19 @@
     <t>string</t>
   </si>
   <si>
-    <t>火射手</t>
-  </si>
-  <si>
-    <t>擅长远程攻击的火元素弓手，箭矢燃烧敌人造成额外伤害。</t>
-  </si>
-  <si>
-    <t>UIGames/UIChess/DiscreteImages/archer icon.png</t>
-  </si>
-  <si>
-    <t>火骑士</t>
-  </si>
-  <si>
-    <t>拥有强大护甲的火焰骑士，挥舞燃烧巨剑冲锋陷阵。</t>
+    <t>火神射</t>
+  </si>
+  <si>
+    <t>擅长远程攻击的火元素弓手</t>
+  </si>
+  <si>
+    <t>UIGames/Character/DiscreteImages/ArcherA.png</t>
+  </si>
+  <si>
+    <t>重甲盾卫</t>
+  </si>
+  <si>
+    <t>拥有强大护甲的骑士，挥舞燃烧巨剑冲锋陷阵。</t>
   </si>
   <si>
     <r>
@@ -117,7 +111,7 @@
     </r>
   </si>
   <si>
-    <t>火法师</t>
+    <t>奥术魔导师</t>
   </si>
   <si>
     <t>掌控烈焰的法师，能够召唤火球焚烧大范围敌人。</t>
@@ -145,40 +139,25 @@
     </r>
   </si>
   <si>
-    <t>霜射手</t>
-  </si>
-  <si>
-    <t>擅长冻结目标的冰霜弓手，可降低敌人的移动速度。</t>
-  </si>
-  <si>
-    <t>霜骑士</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 穿戴寒冰铠甲的战士，攻击时能冻结敌人短暂时间。</t>
-  </si>
-  <si>
-    <t>霜法师</t>
-  </si>
-  <si>
-    <t>冰雪魔法的掌控者，能召唤暴风雪范围控制敌人。</t>
-  </si>
-  <si>
-    <t>草射手</t>
-  </si>
-  <si>
-    <t>擅长利用大自然力量的弓手，能召唤缠绕藤蔓束缚敌人。</t>
-  </si>
-  <si>
-    <t>草骑士</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 以自然之力强化护甲，受击时有概率恢复生命值。</t>
-  </si>
-  <si>
-    <t>草法师</t>
-  </si>
-  <si>
-    <t>操控生命能量的法师，能够治愈队友并削弱敌人。</t>
+    <t>冰霜游侠</t>
+  </si>
+  <si>
+    <t>擅长冻结目标的冰霜弓手</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/archer icon.png</t>
+  </si>
+  <si>
+    <t>狂战先锋</t>
+  </si>
+  <si>
+    <t>穿戴寒冰铠甲的战士</t>
+  </si>
+  <si>
+    <t>秘法贤者</t>
+  </si>
+  <si>
+    <t>冰雪魔法的掌控者</t>
   </si>
 </sst>
 </file>
@@ -191,7 +170,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +189,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="var(--ds-font-family-code)"/>
       <charset val="134"/>
     </font>
     <font>
@@ -687,137 +672,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -828,15 +813,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K14"/>
+  <dimension ref="C2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1201,16 +1187,17 @@
     <col min="3" max="3" width="7.87962962962963" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.0555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.0185185185185" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.8148148148148" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9166666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="41.1" customHeight="1" spans="3:11">
+    <row r="2" ht="17" customHeight="1"/>
+    <row r="3" ht="16" customHeight="1" spans="3:11">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,306 +1219,225 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" ht="14.4" spans="3:11">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="J6" s="9">
-        <v>6</v>
-      </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" ht="14.4" spans="3:11">
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" ht="14.4" spans="3:9">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="J7" s="9">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" ht="14.4" spans="3:11">
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="3:9">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="J8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" s="9"/>
+      <c r="I8" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" ht="14.4" spans="3:11">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="1">
-        <v>1004</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="9"/>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" ht="14.4" spans="3:11">
       <c r="C10" s="1">
         <v>1004</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
         <v>5</v>
       </c>
-      <c r="I10" s="1">
-        <v>1005</v>
-      </c>
-      <c r="J10" s="1">
-        <v>6</v>
-      </c>
-      <c r="K10" s="9"/>
+      <c r="I10" s="10">
+        <v>8</v>
+      </c>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" ht="14.4" spans="3:11">
       <c r="C11" s="1">
         <v>1005</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6">
         <v>6</v>
       </c>
-      <c r="I11" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6</v>
-      </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" ht="14.4" spans="3:11">
-      <c r="C12" s="1">
-        <v>1006</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1007</v>
-      </c>
-      <c r="J12" s="1">
-        <v>6</v>
-      </c>
-      <c r="K12" s="9"/>
+      <c r="I11" s="10">
+        <v>8</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="11:11">
+      <c r="K12" s="10"/>
     </row>
     <row r="13" ht="14.4" spans="3:11">
-      <c r="C13" s="1">
-        <v>1007</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1008</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" ht="14.4" spans="3:10">
-      <c r="C14" s="1">
-        <v>1008</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1009</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6</v>
-      </c>
+      <c r="C13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" ht="14.4" spans="3:8">
+      <c r="C14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig@cs.xlsx
+++ b/Excel/HeroConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="12684"/>
+    <workbookView windowWidth="17748" windowHeight="13584"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -89,26 +89,7 @@
     <t>拥有强大护甲的骑士，挥舞燃烧巨剑冲锋陷阵。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UIGames/UIChess/DiscreteImages/knight icon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.png</t>
-    </r>
+    <t>UIGames/Character/DiscreteImages/InfantryA.png</t>
   </si>
   <si>
     <t>奥术魔导师</t>
@@ -117,26 +98,7 @@
     <t>掌控烈焰的法师，能够召唤火球焚烧大范围敌人。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UIGames/UIChess/DiscreteImages/wizzard icon 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.png</t>
-    </r>
+    <t>UIGames/Character/DiscreteImages/MegaA.png</t>
   </si>
   <si>
     <t>冰霜游侠</t>
@@ -145,7 +107,7 @@
     <t>擅长冻结目标的冰霜弓手</t>
   </si>
   <si>
-    <t>UIGames/UIChess/DiscreteImages/archer icon.png</t>
+    <t>UIGames/Character/DiscreteImages/ArcherB.png</t>
   </si>
   <si>
     <t>狂战先锋</t>
@@ -154,10 +116,16 @@
     <t>穿戴寒冰铠甲的战士</t>
   </si>
   <si>
+    <t>UIGames/Character/DiscreteImages/InfantryB.png</t>
+  </si>
+  <si>
     <t>秘法贤者</t>
   </si>
   <si>
     <t>冰雪魔法的掌控者</t>
+  </si>
+  <si>
+    <t>UIGames/Character/DiscreteImages/MegaB.png</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1145,7 @@
   <dimension ref="C2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1377,7 +1345,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H10" s="6">
         <v>5</v>
@@ -1392,16 +1360,16 @@
         <v>1005</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6">
         <v>6</v>

--- a/Excel/HeroConfig@cs.xlsx
+++ b/Excel/HeroConfig@cs.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="13590"/>
+    <workbookView windowWidth="16404" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -79,71 +74,71 @@
     <t>string</t>
   </si>
   <si>
+    <t>几何轨迹</t>
+  </si>
+  <si>
+    <t>他的箭矢划出精准的弧线，如同严谨的几何公式般完美，每一次远程攻击都仿佛演绎着数学的奇妙轨迹。</t>
+  </si>
+  <si>
     <t>UIGames/Character/DiscreteImages/ArcherA.png</t>
   </si>
   <si>
+    <t>元素熔炉</t>
+  </si>
+  <si>
+    <t>他宛如一座行走的熔炉，体内燃烧着原始的元素之火；经过烈焰锤炼的铠甲无比坚固，挥舞的燃焰巨剑能将敌人瞬间融解。</t>
+  </si>
+  <si>
     <t>UIGames/Character/DiscreteImages/InfantryA.png</t>
   </si>
   <si>
+    <t>诗界漫游者</t>
+  </si>
+  <si>
+    <t>他在战场中如浪漫诗人般漫步，将火焰化作诗篇，每一个召唤的火球都如同燃烧的韵律，书写着燃情史诗。</t>
+  </si>
+  <si>
     <t>UIGames/Character/DiscreteImages/MegaA.png</t>
   </si>
   <si>
+    <t>时空弦手</t>
+  </si>
+  <si>
+    <t>他把握着时间与空间的奥秘，每一发冰霜弦箭都仿佛带有穿梭时空的力量，将瞬间凝固为永恒的冰封画面。</t>
+  </si>
+  <si>
     <t>UIGames/Character/DiscreteImages/ArcherB.png</t>
   </si>
   <si>
+    <t>生命图谱</t>
+  </si>
+  <si>
+    <t>他体内蕴藏着生命的秘辛，身披刻满神秘符文的图谱铠甲；每一道纹路都记录着生命的脉动，在战场上编织出一幅壮丽的生机画卷。</t>
+  </si>
+  <si>
     <t>UIGames/Character/DiscreteImages/InfantryB.png</t>
   </si>
   <si>
+    <t>时序观测者</t>
+  </si>
+  <si>
+    <t>他拥有窥探未来的慧眼，洞悉战局中时间的脉动；借助冰雪魔法，他能精准冻结那转瞬即逝的关键时刻，改写战局的命运。</t>
+  </si>
+  <si>
     <t>UIGames/Character/DiscreteImages/MegaB.png</t>
-  </si>
-  <si>
-    <t>几何轨迹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时空弦手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素熔炉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命图谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>诗界漫游者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时序观测者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他的箭矢划出精准的弧线，如同严谨的几何公式般完美，每一次远程攻击都仿佛演绎着数学的奇妙轨迹。</t>
-  </si>
-  <si>
-    <t>他宛如一座行走的熔炉，体内燃烧着原始的元素之火；经过烈焰锤炼的铠甲无比坚固，挥舞的燃焰巨剑能将敌人瞬间融解。</t>
-  </si>
-  <si>
-    <t>他在战场中如浪漫诗人般漫步，将火焰化作诗篇，每一个召唤的火球都如同燃烧的韵律，书写着燃情史诗。</t>
-  </si>
-  <si>
-    <t>他把握着时间与空间的奥秘，每一发冰霜弦箭都仿佛带有穿梭时空的力量，将瞬间凝固为永恒的冰封画面。</t>
-  </si>
-  <si>
-    <t>他体内蕴藏着生命的秘辛，身披刻满神秘符文的图谱铠甲；每一道纹路都记录着生命的脉动，在战场上编织出一幅壮丽的生机画卷。</t>
-  </si>
-  <si>
-    <t>他拥有窥探未来的慧眼，洞悉战局中时间的脉动；借助冰雪魔法，他能精准冻结那转瞬即逝的关键时刻，改写战局的命运。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,36 +150,173 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FFFFFFFF"/>
       <name val="var(--ds-font-family-code)"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +335,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,9 +530,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -230,29 +790,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,36 +1143,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.87962962962963" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="55" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.8796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="17.100000000000001" customHeight="1"/>
-    <row r="3" spans="3:11" ht="15.95" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1"/>
+    <row r="3" ht="15.95" customHeight="1" spans="3:11">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +1194,7 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="5" t="s">
@@ -614,7 +1218,7 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="5" t="s">
@@ -638,179 +1242,179 @@
       <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="3:11" ht="16.5">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" ht="15" spans="3:11">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>3</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="3:11" ht="16.5">
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" ht="15" spans="3:9">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="16.5">
+    <row r="8" ht="15" spans="3:9">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="16.5">
+    <row r="9" ht="15" spans="3:11">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>18</v>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>9</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="3:11" ht="16.5">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" ht="15" spans="3:11">
       <c r="C10" s="1">
         <v>1004</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>19</v>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="6">
         <v>5</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>15</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="3:11" ht="16.5">
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" ht="15" spans="3:11">
       <c r="C11" s="1">
         <v>1005</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="6">
         <v>6</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="11">
         <v>17</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="11:11">
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" ht="14.4" spans="3:11">
+      <c r="C13" s="10"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="6"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="9"/>
-      <c r="G14" s="8"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" ht="14.4" spans="3:8">
+      <c r="C14" s="10"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="3:11">
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="9"/>
+    <row r="15" spans="3:3">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>